--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T18:28:01+00:00</t>
+    <t>2023-07-19T14:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -231,10 +231,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T14:01:19+00:00</t>
+    <t>2023-08-02T16:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T16:54:26+00:00</t>
+    <t>2023-10-18T17:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:21:54+00:00</t>
+    <t>2023-11-09T20:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:21:55+00:00</t>
+    <t>2023-11-27T16:21:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T16:21:02+00:00</t>
+    <t>2024-03-01T18:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T18:52:33+00:00</t>
+    <t>2024-03-19T14:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T14:09:21+00:00</t>
+    <t>2024-03-25T15:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:25:45+00:00</t>
+    <t>2024-03-28T12:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:52:30+00:00</t>
+    <t>2024-05-09T16:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:24:25+00:00</t>
+    <t>2024-05-09T16:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-sequencing-request-code.xlsx
+++ b/ig/ValueSet-sequencing-request-code.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-09T16:30:56+00:00</t>
+    <t>2024-06-10T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
